--- a/Lab1/Data.xlsx
+++ b/Lab1/Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Олег\Github\infa_3_sem\Lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Олег\Github\infa_3_sem\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -18,10 +18,45 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>точка</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>отрезок</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>набор отрезков</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>Pc</t>
+  </si>
+  <si>
+    <t>Pd</t>
+  </si>
+  <si>
+    <t>Вероят. По испытаниям</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -518,10 +553,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -595,6 +633,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> вероятноти от количества испытаний</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -3648,10 +3716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K100" sqref="K100"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3660,7 +3728,7 @@
     <col min="2" max="4" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -3673,8 +3741,26 @@
       <c r="D1" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -3687,8 +3773,26 @@
       <c r="D2" s="2">
         <v>0.17821799999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>9.9009900000000001E-3</v>
+      </c>
+      <c r="K2">
+        <v>0.10891099999999999</v>
+      </c>
+      <c r="L2">
+        <v>0.27722799999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>201</v>
       </c>
@@ -3701,8 +3805,13 @@
       <c r="D3" s="2">
         <v>0.25870599999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>301</v>
       </c>
@@ -3715,8 +3824,17 @@
       <c r="D4" s="2">
         <v>0.25913599999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="2">
+        <v>1.0302E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.107363</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.26855899999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>401</v>
       </c>
@@ -3730,7 +3848,7 @@
         <v>0.25685799999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>501</v>
       </c>
@@ -3744,7 +3862,7 @@
         <v>0.26147700000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>601</v>
       </c>
@@ -3758,7 +3876,7 @@
         <v>0.25956699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>701</v>
       </c>
@@ -3772,7 +3890,7 @@
         <v>0.25820300000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>801</v>
       </c>
@@ -3786,7 +3904,7 @@
         <v>0.26466899999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>901</v>
       </c>
@@ -3800,7 +3918,7 @@
         <v>0.256382</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1001</v>
       </c>
@@ -3814,7 +3932,7 @@
         <v>0.25574400000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1101</v>
       </c>
@@ -3828,7 +3946,7 @@
         <v>0.26430500000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1201</v>
       </c>
@@ -3842,7 +3960,7 @@
         <v>0.26477899999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1301</v>
       </c>
@@ -3856,7 +3974,7 @@
         <v>0.26133699999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1401</v>
       </c>
@@ -3870,7 +3988,7 @@
         <v>0.26195600000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1501</v>
       </c>
@@ -5061,6 +5179,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F3:H3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
